--- a/Проект/Рома √/excel blyat.xlsx
+++ b/Проект/Рома √/excel blyat.xlsx
@@ -1,32 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\khbh\docrepo\Проект\Рома √\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E1540F-3D3B-4657-9909-0959B4FBBE17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +56,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,15 +64,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +383,143 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>SUM(A1:A24)</f>
+        <v>360.79999999999995</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Проект/Рома √/excel blyat.xlsx
+++ b/Проект/Рома √/excel blyat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\khbh\docrepo\Проект\Рома √\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E1540F-3D3B-4657-9909-0959B4FBBE17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDA0114-6EC0-47FB-8C39-221B08BD874C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,8 +30,20 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>10 798.5</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;₽&quot;;[Red]\-#,##0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;₽&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,13 +108,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,138 +406,351 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2746</v>
+      </c>
+      <c r="I1" s="4">
+        <f>15999</f>
+        <v>15999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2350</v>
+      </c>
+      <c r="I2" s="5">
+        <f>6999</f>
+        <v>6999</v>
+      </c>
+      <c r="K2">
+        <f>18826.3 + 23 * 100789+ 23 * 42327</f>
+        <v>3310494.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G3" s="2">
+        <v>156</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1383</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1276</v>
+      </c>
+      <c r="I5" s="6">
+        <v>9290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>19.8</v>
+      </c>
+      <c r="I6" s="6">
+        <v>7590</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="E7" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="G7" s="2">
+        <v>97</v>
+      </c>
+      <c r="I7" s="3">
+        <f>SUM(I1:I6)</f>
+        <v>42327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="G9">
+        <f>SUM(G1:G8)</f>
+        <v>8027.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="2">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="2">
+        <v>15.9</v>
+      </c>
+      <c r="E13" s="2">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="2">
+        <v>18.7</v>
+      </c>
+      <c r="E15" s="2">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="E16" s="2">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="2">
+        <v>18.2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="2">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E18" s="2">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="2">
+        <v>21</v>
+      </c>
+      <c r="E19" s="2">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="2">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E20" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="2">
+        <v>21.9</v>
+      </c>
+      <c r="E22" s="2">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="2">
+        <v>23.3</v>
+      </c>
+      <c r="E23" s="2">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>34.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="E24" s="2">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>SUM(A1:A24)</f>
         <v>360.79999999999995</v>
+      </c>
+      <c r="C25">
+        <f>SUM(C1:C24)</f>
+        <v>369.9</v>
+      </c>
+      <c r="E25">
+        <f>SUM(E1:E24)</f>
+        <v>358.79999999999995</v>
       </c>
     </row>
   </sheetData>
